--- a/Team Member Evaluation.xlsx
+++ b/Team Member Evaluation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jegerland\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jegerland\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,9 +78,6 @@
     <t>Karalynn Krause</t>
   </si>
   <si>
-    <t>UI/Functions 24%</t>
-  </si>
-  <si>
     <t>Julian Nicholls</t>
   </si>
   <si>
@@ -90,15 +87,9 @@
     <t>Garrett Pinkney</t>
   </si>
   <si>
-    <t>DB/Fucntions/ Manager? 24%</t>
-  </si>
-  <si>
     <t>Josh Egerland</t>
   </si>
   <si>
-    <t>DB/Manager 24%</t>
-  </si>
-  <si>
     <t>Sean Cook</t>
   </si>
   <si>
@@ -109,6 +100,15 @@
   </si>
   <si>
     <t>Signature</t>
+  </si>
+  <si>
+    <t>UI/Functions 22%</t>
+  </si>
+  <si>
+    <t>DB/Functions/ Manager 22%</t>
+  </si>
+  <si>
+    <t>DB/Manager/UI/Functions 30%</t>
   </si>
 </sst>
 </file>
@@ -279,22 +279,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +578,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -621,26 +621,26 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -684,13 +684,13 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -698,19 +698,19 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="6">
@@ -718,21 +718,21 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -744,7 +744,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J14" s="6">
         <v>0.45</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="15" spans="1:10" ht="12.75">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -770,7 +770,7 @@
     </row>
     <row r="16" spans="1:10" ht="12.75">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
@@ -801,62 +801,57 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75">
-      <c r="A17" s="18"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" ht="12.75">
       <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="11" t="s">
-        <v>20</v>
+      <c r="D18" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75">
       <c r="A19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="12"/>
       <c r="J19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="D18:E18"/>
@@ -867,6 +862,11 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
